--- a/public_html/wm/Auswertung500.xlsx
+++ b/public_html/wm/Auswertung500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Google Drive\Sport\skate\Ergebnisse\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB30CC-10CE-4484-A2A5-FC12C29A216A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420D22-FF6C-471B-B447-A71242C380C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="127">
   <si>
     <t xml:space="preserve">jahr </t>
   </si>
@@ -315,12 +315,6 @@
     <t>https://sportdeutschland.tv/inlinespeedskating/re-live-inline-speedscating-arena-geisingen-international-2019-tag-2?playlistId=1</t>
   </si>
   <si>
-    <t>wm</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
     <t>alle</t>
   </si>
   <si>
@@ -367,6 +361,57 @@
   </si>
   <si>
     <t xml:space="preserve">Spannend viel überholungen </t>
+  </si>
+  <si>
+    <t>https://youtu.be/6IX8fXkjKvU?t=117</t>
+  </si>
+  <si>
+    <t>Spannend viel überholungen  Taktische fehler</t>
+  </si>
+  <si>
+    <t>Simon intresant</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZN1ADcR01Qw?t=106</t>
+  </si>
+  <si>
+    <t>Toller Komentar</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letzte Grade </t>
+  </si>
+  <si>
+    <t>wenn der erste speed raussnimmt kann der dritte an platz zwei</t>
+  </si>
+  <si>
+    <t>fehler an platz 2 geht nach aussen</t>
+  </si>
+  <si>
+    <t>viele fehler innen nicht zugemacht</t>
+  </si>
+  <si>
+    <t>mende zu leicht überholen lassen</t>
+  </si>
+  <si>
+    <t>Simon so bestimmt man 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit zielschritt dritter </t>
+  </si>
+  <si>
+    <t>Aussagen</t>
+  </si>
+  <si>
+    <t>Bei Männer ist es wichtiger an Platz 1 bzw den Start zu gewinnen</t>
+  </si>
+  <si>
+    <t>Bei Junioren ist der Start nicht ganz so wichtig</t>
+  </si>
+  <si>
+    <t>Frauen haben eher die Möglichkeit obwohl sie nicht nach dem Start erster sind zu gewinnen</t>
   </si>
 </sst>
 </file>
@@ -464,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -477,94 +522,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,41 +542,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,12 +577,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -672,69 +677,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5687,8 +5692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="X45" workbookViewId="0">
+      <selection activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5879,7 +5884,7 @@
         <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>43</v>
@@ -5995,7 +6000,7 @@
         <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>44</v>
@@ -6336,8 +6341,8 @@
       <c r="V6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="51" t="s">
-        <v>108</v>
+      <c r="W6" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>38</v>
@@ -6441,7 +6446,7 @@
         <v>22</v>
       </c>
       <c r="W7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>39</v>
@@ -6789,7 +6794,7 @@
         <v>25</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>26</v>
@@ -7032,8 +7037,8 @@
       <c r="V12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="51" t="s">
-        <v>111</v>
+      <c r="W12" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>36</v>
@@ -7380,9 +7385,6 @@
       <c r="V15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W15" t="s">
-        <v>48</v>
-      </c>
       <c r="X15" s="5" t="s">
         <v>48</v>
       </c>
@@ -7496,11 +7498,8 @@
       <c r="V16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W16" t="s">
-        <v>49</v>
-      </c>
       <c r="X16" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AB16">
         <f t="shared" si="11"/>
@@ -7612,9 +7611,6 @@
       <c r="V17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W17" t="s">
-        <v>71</v>
-      </c>
       <c r="X17" s="5" t="s">
         <v>71</v>
       </c>
@@ -7728,9 +7724,6 @@
       <c r="V18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W18" t="s">
-        <v>49</v>
-      </c>
       <c r="X18" s="5" t="s">
         <v>49</v>
       </c>
@@ -7844,9 +7837,6 @@
       <c r="V19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W19" t="s">
-        <v>53</v>
-      </c>
       <c r="X19" s="5" t="s">
         <v>53</v>
       </c>
@@ -7960,8 +7950,8 @@
       <c r="V20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W20" t="s">
-        <v>54</v>
+      <c r="W20" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>54</v>
@@ -8077,7 +8067,7 @@
         <v>24</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>55</v>
@@ -8192,8 +8182,8 @@
       <c r="V22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W22" t="s">
-        <v>56</v>
+      <c r="W22" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>56</v>
@@ -8308,9 +8298,6 @@
       <c r="V23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W23" t="s">
-        <v>40</v>
-      </c>
       <c r="X23" s="5" t="s">
         <v>40</v>
       </c>
@@ -8427,9 +8414,6 @@
       <c r="V24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W24" t="s">
-        <v>49</v>
-      </c>
       <c r="X24" s="5" t="s">
         <v>49</v>
       </c>
@@ -8543,9 +8527,6 @@
       <c r="V25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W25" t="s">
-        <v>50</v>
-      </c>
       <c r="X25" s="5" t="s">
         <v>50</v>
       </c>
@@ -8659,11 +8640,8 @@
       <c r="V26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W26" t="s">
-        <v>50</v>
-      </c>
       <c r="X26" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="AB26">
         <f t="shared" si="11"/>
@@ -8775,8 +8753,8 @@
       <c r="V27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W27" t="s">
-        <v>51</v>
+      <c r="W27" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>51</v>
@@ -8891,9 +8869,6 @@
       <c r="V28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W28" t="s">
-        <v>57</v>
-      </c>
       <c r="X28" s="5" t="s">
         <v>57</v>
       </c>
@@ -9007,9 +8982,6 @@
       <c r="V29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W29" t="s">
-        <v>58</v>
-      </c>
       <c r="X29" s="5" t="s">
         <v>58</v>
       </c>
@@ -9126,8 +9098,8 @@
       <c r="V30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="6" t="s">
-        <v>75</v>
+      <c r="W30" t="s">
+        <v>115</v>
       </c>
       <c r="X30" s="6" t="s">
         <v>75</v>
@@ -9245,8 +9217,8 @@
       <c r="V31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W31" t="s">
-        <v>78</v>
+      <c r="W31" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>78</v>
@@ -9361,8 +9333,8 @@
       <c r="V32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W32" t="s">
-        <v>80</v>
+      <c r="W32" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>80</v>
@@ -9477,9 +9449,6 @@
       <c r="V33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W33" t="s">
-        <v>81</v>
-      </c>
       <c r="X33" s="5" t="s">
         <v>81</v>
       </c>
@@ -9593,8 +9562,8 @@
       <c r="V34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W34" t="s">
-        <v>83</v>
+      <c r="W34" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="X34" s="5" t="s">
         <v>83</v>
@@ -9712,8 +9681,8 @@
       <c r="V35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W35" t="s">
-        <v>82</v>
+      <c r="W35" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>82</v>
@@ -9828,8 +9797,8 @@
       <c r="V36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W36" t="s">
-        <v>84</v>
+      <c r="W36" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="X36" s="5" t="s">
         <v>84</v>
@@ -9947,9 +9916,6 @@
       <c r="V37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W37" t="s">
-        <v>85</v>
-      </c>
       <c r="X37" s="5" t="s">
         <v>85</v>
       </c>
@@ -10066,9 +10032,6 @@
       <c r="V38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W38" t="s">
-        <v>87</v>
-      </c>
       <c r="X38" s="5" t="s">
         <v>87</v>
       </c>
@@ -10182,8 +10145,8 @@
       <c r="V39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W39" t="s">
-        <v>89</v>
+      <c r="W39" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="X39" s="5" t="s">
         <v>89</v>
@@ -10298,8 +10261,8 @@
       <c r="V40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W40" t="s">
-        <v>90</v>
+      <c r="W40" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="X40" s="5" t="s">
         <v>90</v>
@@ -10409,65 +10372,63 @@
     <sortCondition descending="1" ref="A2:A29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="W30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X31" r:id="rId2" xr:uid="{584BD36B-7DC8-4CC6-BFEF-E6E2A8481A40}"/>
-    <hyperlink ref="X32" r:id="rId3" xr:uid="{C1B08C71-80B7-4DE4-9649-148FD02DF5B3}"/>
-    <hyperlink ref="X33" r:id="rId4" xr:uid="{B4A7DC12-C340-4094-886F-0561BD330D5F}"/>
-    <hyperlink ref="X34" r:id="rId5" xr:uid="{D82EA938-3153-4BB9-ABFA-A40DA2714233}"/>
-    <hyperlink ref="X35" r:id="rId6" xr:uid="{09D19781-6CD6-43A2-A99E-10051D421C9C}"/>
-    <hyperlink ref="X36" r:id="rId7" xr:uid="{2DE122A8-31D9-42D7-AA2D-D60B692AEB14}"/>
-    <hyperlink ref="X37" r:id="rId8" xr:uid="{1213FA7F-E72E-4FB4-9848-04303ECC0104}"/>
-    <hyperlink ref="X38" r:id="rId9" xr:uid="{D81811E4-73D7-465C-81B7-AF8C43F99E78}"/>
-    <hyperlink ref="X39" r:id="rId10" xr:uid="{07A2D84D-F3B1-48D4-AC13-7360D346D97B}"/>
-    <hyperlink ref="X40" r:id="rId11" xr:uid="{78AAD319-A1D1-4E2E-99A2-9B210C949293}"/>
-    <hyperlink ref="X30" r:id="rId12" xr:uid="{EBA0FC68-5410-4C76-8C70-D36EB512E4DE}"/>
-    <hyperlink ref="X2" r:id="rId13" xr:uid="{1521C451-481B-46D6-8317-4743DB8C19C9}"/>
-    <hyperlink ref="X3" r:id="rId14" xr:uid="{1F9BDC7E-1AEF-441B-BF83-3A5690622923}"/>
-    <hyperlink ref="X4" r:id="rId15" xr:uid="{A89C5A5B-7168-4366-8F1A-4C02650321FF}"/>
-    <hyperlink ref="X5" r:id="rId16" xr:uid="{3DC09F68-67EA-4F92-BBF2-C4F84550C717}"/>
-    <hyperlink ref="X6" r:id="rId17" xr:uid="{94D688AC-D6D5-484C-A6E5-9C3302F36C4F}"/>
-    <hyperlink ref="X7" r:id="rId18" xr:uid="{F8717382-D3D4-403A-9229-FD3A6CF93B56}"/>
-    <hyperlink ref="X8" r:id="rId19" xr:uid="{35DCEC94-2057-4FA6-B3A8-4C4CE0E4DA64}"/>
-    <hyperlink ref="X9" r:id="rId20" xr:uid="{2ED461DE-535F-4A0B-BB0D-8CC8843977D4}"/>
-    <hyperlink ref="X10" r:id="rId21" xr:uid="{7DCAA6B3-3377-4071-962B-AA38E9F9F7C0}"/>
-    <hyperlink ref="X11" r:id="rId22" xr:uid="{70FACDD0-68E1-48DC-9ABC-8556BBD69392}"/>
-    <hyperlink ref="X12" r:id="rId23" xr:uid="{E3AD4CD6-F546-43F1-9BBC-C056142E1388}"/>
-    <hyperlink ref="X13" r:id="rId24" xr:uid="{691843EE-FC00-48E7-9D1F-BFF116B480D6}"/>
-    <hyperlink ref="X14" r:id="rId25" xr:uid="{0AD1E955-D548-4178-AD13-7B7037A12374}"/>
-    <hyperlink ref="X15" r:id="rId26" xr:uid="{86B59FA1-DC33-46D0-BF1B-472C9CA87522}"/>
-    <hyperlink ref="X16" r:id="rId27" xr:uid="{D1482B20-80B4-48B0-9655-62B5377D1198}"/>
-    <hyperlink ref="X17" r:id="rId28" xr:uid="{03236D60-69EE-4F51-AFC5-80DF85DE606B}"/>
-    <hyperlink ref="X18" r:id="rId29" xr:uid="{B6081B41-34E0-4599-BF4C-B23283842511}"/>
-    <hyperlink ref="X19" r:id="rId30" xr:uid="{822E5E88-F682-4C74-9361-037511C69905}"/>
-    <hyperlink ref="X20" r:id="rId31" xr:uid="{C5ACE6C9-5BFC-458E-BE47-18A065F5C667}"/>
-    <hyperlink ref="X21" r:id="rId32" xr:uid="{4F25AAA8-25F8-44F2-AB3D-AD0DEC4D4745}"/>
-    <hyperlink ref="X22" r:id="rId33" xr:uid="{E6516AA7-C18E-41D6-8BDD-671349C785E5}"/>
-    <hyperlink ref="X23" r:id="rId34" xr:uid="{C8D2F28A-5570-4E37-B87A-ED8E6E845B99}"/>
-    <hyperlink ref="X24" r:id="rId35" xr:uid="{B9F6CA97-E6F2-4EEF-AAF3-0A813A258B52}"/>
-    <hyperlink ref="X25" r:id="rId36" xr:uid="{91C9A89A-C5AB-4E36-8266-1C81CB6046EE}"/>
-    <hyperlink ref="X26" r:id="rId37" xr:uid="{195B7B13-2455-46C2-8F80-1816C106FC66}"/>
-    <hyperlink ref="X27" r:id="rId38" xr:uid="{DB848AAD-B980-4951-8689-49AE034DB474}"/>
-    <hyperlink ref="X28" r:id="rId39" xr:uid="{706DFE67-9898-4747-BA16-5E07D43CAB09}"/>
-    <hyperlink ref="X29" r:id="rId40" xr:uid="{6C278D9E-0DAB-4ADE-A454-E469C3348CCD}"/>
+    <hyperlink ref="X31" r:id="rId1" xr:uid="{584BD36B-7DC8-4CC6-BFEF-E6E2A8481A40}"/>
+    <hyperlink ref="X32" r:id="rId2" xr:uid="{C1B08C71-80B7-4DE4-9649-148FD02DF5B3}"/>
+    <hyperlink ref="X33" r:id="rId3" xr:uid="{B4A7DC12-C340-4094-886F-0561BD330D5F}"/>
+    <hyperlink ref="X34" r:id="rId4" xr:uid="{D82EA938-3153-4BB9-ABFA-A40DA2714233}"/>
+    <hyperlink ref="X35" r:id="rId5" xr:uid="{09D19781-6CD6-43A2-A99E-10051D421C9C}"/>
+    <hyperlink ref="X36" r:id="rId6" xr:uid="{2DE122A8-31D9-42D7-AA2D-D60B692AEB14}"/>
+    <hyperlink ref="X37" r:id="rId7" xr:uid="{1213FA7F-E72E-4FB4-9848-04303ECC0104}"/>
+    <hyperlink ref="X38" r:id="rId8" xr:uid="{D81811E4-73D7-465C-81B7-AF8C43F99E78}"/>
+    <hyperlink ref="X39" r:id="rId9" xr:uid="{07A2D84D-F3B1-48D4-AC13-7360D346D97B}"/>
+    <hyperlink ref="X40" r:id="rId10" xr:uid="{78AAD319-A1D1-4E2E-99A2-9B210C949293}"/>
+    <hyperlink ref="X30" r:id="rId11" xr:uid="{EBA0FC68-5410-4C76-8C70-D36EB512E4DE}"/>
+    <hyperlink ref="X2" r:id="rId12" xr:uid="{1521C451-481B-46D6-8317-4743DB8C19C9}"/>
+    <hyperlink ref="X3" r:id="rId13" xr:uid="{1F9BDC7E-1AEF-441B-BF83-3A5690622923}"/>
+    <hyperlink ref="X4" r:id="rId14" xr:uid="{A89C5A5B-7168-4366-8F1A-4C02650321FF}"/>
+    <hyperlink ref="X5" r:id="rId15" xr:uid="{3DC09F68-67EA-4F92-BBF2-C4F84550C717}"/>
+    <hyperlink ref="X6" r:id="rId16" xr:uid="{94D688AC-D6D5-484C-A6E5-9C3302F36C4F}"/>
+    <hyperlink ref="X7" r:id="rId17" xr:uid="{F8717382-D3D4-403A-9229-FD3A6CF93B56}"/>
+    <hyperlink ref="X8" r:id="rId18" xr:uid="{35DCEC94-2057-4FA6-B3A8-4C4CE0E4DA64}"/>
+    <hyperlink ref="X9" r:id="rId19" xr:uid="{2ED461DE-535F-4A0B-BB0D-8CC8843977D4}"/>
+    <hyperlink ref="X10" r:id="rId20" xr:uid="{7DCAA6B3-3377-4071-962B-AA38E9F9F7C0}"/>
+    <hyperlink ref="X11" r:id="rId21" xr:uid="{70FACDD0-68E1-48DC-9ABC-8556BBD69392}"/>
+    <hyperlink ref="X12" r:id="rId22" xr:uid="{E3AD4CD6-F546-43F1-9BBC-C056142E1388}"/>
+    <hyperlink ref="X13" r:id="rId23" xr:uid="{691843EE-FC00-48E7-9D1F-BFF116B480D6}"/>
+    <hyperlink ref="X14" r:id="rId24" xr:uid="{0AD1E955-D548-4178-AD13-7B7037A12374}"/>
+    <hyperlink ref="X15" r:id="rId25" xr:uid="{86B59FA1-DC33-46D0-BF1B-472C9CA87522}"/>
+    <hyperlink ref="X17" r:id="rId26" xr:uid="{03236D60-69EE-4F51-AFC5-80DF85DE606B}"/>
+    <hyperlink ref="X18" r:id="rId27" xr:uid="{B6081B41-34E0-4599-BF4C-B23283842511}"/>
+    <hyperlink ref="X19" r:id="rId28" xr:uid="{822E5E88-F682-4C74-9361-037511C69905}"/>
+    <hyperlink ref="X20" r:id="rId29" xr:uid="{C5ACE6C9-5BFC-458E-BE47-18A065F5C667}"/>
+    <hyperlink ref="X21" r:id="rId30" xr:uid="{4F25AAA8-25F8-44F2-AB3D-AD0DEC4D4745}"/>
+    <hyperlink ref="X22" r:id="rId31" xr:uid="{E6516AA7-C18E-41D6-8BDD-671349C785E5}"/>
+    <hyperlink ref="X23" r:id="rId32" xr:uid="{C8D2F28A-5570-4E37-B87A-ED8E6E845B99}"/>
+    <hyperlink ref="X24" r:id="rId33" xr:uid="{B9F6CA97-E6F2-4EEF-AAF3-0A813A258B52}"/>
+    <hyperlink ref="X25" r:id="rId34" xr:uid="{91C9A89A-C5AB-4E36-8266-1C81CB6046EE}"/>
+    <hyperlink ref="X27" r:id="rId35" xr:uid="{DB848AAD-B980-4951-8689-49AE034DB474}"/>
+    <hyperlink ref="X28" r:id="rId36" xr:uid="{706DFE67-9898-4747-BA16-5E07D43CAB09}"/>
+    <hyperlink ref="X29" r:id="rId37" xr:uid="{6C278D9E-0DAB-4ADE-A454-E469C3348CCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
-  <drawing r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="12" width="21.06640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
@@ -12520,373 +12481,421 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C43" s="28"/>
+    </row>
+    <row r="57" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="58" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="53"/>
     </row>
     <row r="59" spans="3:17" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="C59" s="28"/>
-      <c r="D59" s="40" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="41"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="37"/>
     </row>
-    <row r="60" spans="3:17" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C60" s="28"/>
+    <row r="60" spans="3:17" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="18"/>
       <c r="D60" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="50"/>
+        <v>103</v>
+      </c>
+      <c r="E60" s="32">
+        <v>1</v>
+      </c>
+      <c r="F60" s="33">
+        <v>2</v>
+      </c>
+      <c r="G60" s="33">
+        <v>3</v>
+      </c>
+      <c r="H60" s="33">
+        <v>4</v>
+      </c>
+      <c r="I60" s="41"/>
+      <c r="J60" s="34">
+        <v>1</v>
+      </c>
+      <c r="K60" s="34">
+        <v>2</v>
+      </c>
+      <c r="L60" s="34">
+        <v>3</v>
+      </c>
+      <c r="M60" s="45">
+        <v>4</v>
+      </c>
+      <c r="N60" s="36">
+        <v>1</v>
+      </c>
+      <c r="O60" s="36">
+        <v>2</v>
+      </c>
+      <c r="P60" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="38">
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C61" s="28"/>
-      <c r="D61" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="16">
+    <row r="61" spans="3:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="18"/>
+      <c r="D61" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="13">
         <v>56</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="14">
         <v>21</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="14">
         <v>13</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="14">
         <v>10</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="15">
+      <c r="I61" s="42"/>
+      <c r="J61" s="12">
         <v>62</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="12">
         <v>15</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="12">
         <v>18</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="46">
         <v>5</v>
       </c>
       <c r="N61" s="11">
         <v>87</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="11">
         <v>10</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="11">
         <v>3</v>
       </c>
-      <c r="Q61" s="26">
+      <c r="Q61" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C62" s="28"/>
-      <c r="D62" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="19">
+      <c r="C62" s="18"/>
+      <c r="D62" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="13">
         <v>54</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="14">
         <v>21</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="14">
         <v>11</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="14">
         <v>14</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="15">
+      <c r="I62" s="42"/>
+      <c r="J62" s="12">
         <v>61</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="12">
         <v>18</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="12">
         <v>18</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="46">
         <v>3</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="11">
         <v>90</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62" s="11">
         <v>7</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="11">
         <v>3</v>
       </c>
-      <c r="Q62" s="27"/>
+      <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C63" s="28"/>
-      <c r="D63" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="19">
+      <c r="C63" s="18"/>
+      <c r="D63" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="13">
         <v>64</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="14">
         <v>18</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="14">
         <v>18</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="15">
+      <c r="I63" s="42"/>
+      <c r="J63" s="12">
         <v>64</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="12">
         <v>9</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="12">
         <v>18</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="46">
         <v>9</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="11">
         <v>82</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63" s="11">
         <v>18</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="11">
         <v>0</v>
       </c>
-      <c r="Q63" s="27">
+      <c r="Q63" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C64" s="28"/>
-      <c r="D64" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="19">
+      <c r="C64" s="18"/>
+      <c r="D64" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="13">
         <v>67</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="14">
         <v>14</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="14">
         <v>5</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="14">
         <v>14</v>
       </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="15">
+      <c r="I64" s="42"/>
+      <c r="J64" s="12">
         <v>65</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="12">
         <v>10</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="12">
         <v>15</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="47">
         <v>10</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="11">
         <v>81</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O64" s="11">
         <v>19</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="11">
         <v>0</v>
       </c>
-      <c r="Q64" s="27">
+      <c r="Q64" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C65" s="28"/>
-      <c r="D65" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="19">
+      <c r="C65" s="18"/>
+      <c r="D65" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="13">
         <v>44</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="15">
         <v>28</v>
       </c>
-      <c r="G65" s="23">
-        <v>22</v>
-      </c>
-      <c r="H65" s="20">
+      <c r="G65" s="16">
+        <v>22</v>
+      </c>
+      <c r="H65" s="14">
         <v>6</v>
       </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="15">
+      <c r="I65" s="42"/>
+      <c r="J65" s="12">
         <v>58</v>
       </c>
       <c r="K65" s="9">
         <v>21</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="12">
         <v>21</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="46">
         <v>0</v>
       </c>
-      <c r="N65" s="24">
+      <c r="N65" s="44">
         <v>95</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65" s="11">
         <v>5</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="11">
         <v>0</v>
       </c>
-      <c r="Q65" s="27">
+      <c r="Q65" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C66" s="28"/>
-      <c r="D66" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="19">
+      <c r="C66" s="18"/>
+      <c r="D66" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="13">
         <v>45</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="16">
         <v>30</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="14">
         <v>15</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="14">
         <v>10</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="15">
+      <c r="I66" s="42"/>
+      <c r="J66" s="12">
         <v>52</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="12">
         <v>19</v>
       </c>
       <c r="L66" s="9">
         <v>24</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="46">
         <v>5</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="11">
         <v>86</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O66" s="11">
         <v>9</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="11">
         <v>5</v>
       </c>
-      <c r="Q66" s="27">
+      <c r="Q66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="28"/>
-      <c r="D67" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="29">
+      <c r="C67" s="18"/>
+      <c r="D67" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="19">
         <v>68</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="20">
         <v>10</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="20">
         <v>11</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="20">
         <v>11</v>
       </c>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32">
-        <v>72</v>
-      </c>
-      <c r="K67" s="33">
+      <c r="I67" s="43"/>
+      <c r="J67" s="21">
+        <v>72</v>
+      </c>
+      <c r="K67" s="22">
         <v>11</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="22">
         <v>11</v>
       </c>
-      <c r="M67" s="33">
+      <c r="M67" s="48">
         <v>6</v>
       </c>
-      <c r="N67" s="34">
+      <c r="N67" s="23">
         <v>89</v>
       </c>
-      <c r="O67" s="35">
+      <c r="O67" s="23">
         <v>11</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="23">
         <v>0</v>
       </c>
-      <c r="Q67" s="36">
+      <c r="Q67" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public_html/wm/Auswertung500.xlsx
+++ b/public_html/wm/Auswertung500.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Google Drive\Sport\skate\Ergebnisse\wm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cgnst\public_html\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420D22-FF6C-471B-B447-A71242C380C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -417,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,30 +694,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -727,9 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,6 +716,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +758,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -863,7 +862,7 @@
                 <a:bevelT w="215900"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-67FD-481C-828F-4E1CFA1099E7}"/>
               </c:ext>
@@ -888,7 +887,7 @@
                 <a:bevelT w="215900"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-67FD-481C-828F-4E1CFA1099E7}"/>
               </c:ext>
@@ -913,7 +912,7 @@
                 <a:bevelT w="215900"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-67FD-481C-828F-4E1CFA1099E7}"/>
               </c:ext>
@@ -938,7 +937,7 @@
                 <a:bevelT w="215900"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-67FD-481C-828F-4E1CFA1099E7}"/>
               </c:ext>
@@ -953,11 +952,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-67FD-481C-828F-4E1CFA1099E7}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1010,7 +1009,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1069,12 +1068,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-67FD-481C-828F-4E1CFA1099E7}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions/>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-67FD-481C-828F-4E1CFA1099E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1140,7 +1139,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1174,7 +1173,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>nach Startposition</a:t>
+              <a:t>Nach Startposition</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1288,7 +1287,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3103-4334-A2FE-83D1AB2ED9B9}"/>
               </c:ext>
@@ -1313,7 +1312,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3103-4334-A2FE-83D1AB2ED9B9}"/>
               </c:ext>
@@ -1338,7 +1337,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3103-4334-A2FE-83D1AB2ED9B9}"/>
               </c:ext>
@@ -1363,7 +1362,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3103-4334-A2FE-83D1AB2ED9B9}"/>
               </c:ext>
@@ -1372,61 +1371,73 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-3103-4334-A2FE-83D1AB2ED9B9}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3103-4334-A2FE-83D1AB2ED9B9}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-3103-4334-A2FE-83D1AB2ED9B9}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3103-4334-A2FE-83D1AB2ED9B9}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1480,7 +1491,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1525,7 +1536,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3103-4334-A2FE-83D1AB2ED9B9}"/>
             </c:ext>
@@ -1628,7 +1639,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1777,7 +1788,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3A3E-401F-9240-515C9CCF5204}"/>
               </c:ext>
@@ -1802,7 +1813,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3A3E-401F-9240-515C9CCF5204}"/>
               </c:ext>
@@ -1827,7 +1838,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3A3E-401F-9240-515C9CCF5204}"/>
               </c:ext>
@@ -1852,7 +1863,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3A3E-401F-9240-515C9CCF5204}"/>
               </c:ext>
@@ -1909,8 +1920,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1954,7 +1967,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3A3E-401F-9240-515C9CCF5204}"/>
             </c:ext>
@@ -2057,7 +2070,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2213,7 +2226,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-B753-48AB-94A5-2D406F00BBF2}"/>
               </c:ext>
@@ -2238,7 +2251,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-B753-48AB-94A5-2D406F00BBF2}"/>
               </c:ext>
@@ -2263,7 +2276,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-B753-48AB-94A5-2D406F00BBF2}"/>
               </c:ext>
@@ -2288,7 +2301,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-B753-48AB-94A5-2D406F00BBF2}"/>
               </c:ext>
@@ -2297,16 +2310,19 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-B753-48AB-94A5-2D406F00BBF2}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2324,25 +2340,30 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B753-48AB-94A5-2D406F00BBF2}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-B753-48AB-94A5-2D406F00BBF2}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2396,8 +2417,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2441,7 +2464,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-B753-48AB-94A5-2D406F00BBF2}"/>
             </c:ext>
@@ -4785,7 +4808,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4826,7 +4849,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4862,7 +4885,7 @@
         <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4900,7 +4923,7 @@
         <xdr:cNvPr id="7" name="Diagramm 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5689,30 +5712,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView topLeftCell="X45" workbookViewId="0">
       <selection activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.9296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -5938,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6054,7 +6077,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -6167,7 +6190,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -6280,7 +6303,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6396,7 +6419,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6500,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6613,7 +6636,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -6726,7 +6749,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -6848,7 +6871,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -6970,7 +6993,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -7092,7 +7115,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -7211,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -7324,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -7437,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -7550,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7663,7 +7686,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -7776,7 +7799,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -7889,7 +7912,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -8005,7 +8028,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -8121,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -8237,7 +8260,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -8353,7 +8376,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -8466,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -8579,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -8692,7 +8715,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -8808,7 +8831,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -8921,7 +8944,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -9034,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -9153,7 +9176,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -9272,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -9388,7 +9411,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -9501,7 +9524,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -9617,7 +9640,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -9736,7 +9759,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -9852,7 +9875,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -9968,7 +9991,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -10084,7 +10107,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -10200,7 +10223,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -10316,7 +10339,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB41">
         <f>SUBTOTAL(9,AB2:AB40)</f>
         <v>22</v>
@@ -10367,48 +10390,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W29"/>
   <sortState ref="A2:W29">
     <sortCondition descending="1" ref="A2:A29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="X31" r:id="rId1" xr:uid="{584BD36B-7DC8-4CC6-BFEF-E6E2A8481A40}"/>
-    <hyperlink ref="X32" r:id="rId2" xr:uid="{C1B08C71-80B7-4DE4-9649-148FD02DF5B3}"/>
-    <hyperlink ref="X33" r:id="rId3" xr:uid="{B4A7DC12-C340-4094-886F-0561BD330D5F}"/>
-    <hyperlink ref="X34" r:id="rId4" xr:uid="{D82EA938-3153-4BB9-ABFA-A40DA2714233}"/>
-    <hyperlink ref="X35" r:id="rId5" xr:uid="{09D19781-6CD6-43A2-A99E-10051D421C9C}"/>
-    <hyperlink ref="X36" r:id="rId6" xr:uid="{2DE122A8-31D9-42D7-AA2D-D60B692AEB14}"/>
-    <hyperlink ref="X37" r:id="rId7" xr:uid="{1213FA7F-E72E-4FB4-9848-04303ECC0104}"/>
-    <hyperlink ref="X38" r:id="rId8" xr:uid="{D81811E4-73D7-465C-81B7-AF8C43F99E78}"/>
-    <hyperlink ref="X39" r:id="rId9" xr:uid="{07A2D84D-F3B1-48D4-AC13-7360D346D97B}"/>
-    <hyperlink ref="X40" r:id="rId10" xr:uid="{78AAD319-A1D1-4E2E-99A2-9B210C949293}"/>
-    <hyperlink ref="X30" r:id="rId11" xr:uid="{EBA0FC68-5410-4C76-8C70-D36EB512E4DE}"/>
-    <hyperlink ref="X2" r:id="rId12" xr:uid="{1521C451-481B-46D6-8317-4743DB8C19C9}"/>
-    <hyperlink ref="X3" r:id="rId13" xr:uid="{1F9BDC7E-1AEF-441B-BF83-3A5690622923}"/>
-    <hyperlink ref="X4" r:id="rId14" xr:uid="{A89C5A5B-7168-4366-8F1A-4C02650321FF}"/>
-    <hyperlink ref="X5" r:id="rId15" xr:uid="{3DC09F68-67EA-4F92-BBF2-C4F84550C717}"/>
-    <hyperlink ref="X6" r:id="rId16" xr:uid="{94D688AC-D6D5-484C-A6E5-9C3302F36C4F}"/>
-    <hyperlink ref="X7" r:id="rId17" xr:uid="{F8717382-D3D4-403A-9229-FD3A6CF93B56}"/>
-    <hyperlink ref="X8" r:id="rId18" xr:uid="{35DCEC94-2057-4FA6-B3A8-4C4CE0E4DA64}"/>
-    <hyperlink ref="X9" r:id="rId19" xr:uid="{2ED461DE-535F-4A0B-BB0D-8CC8843977D4}"/>
-    <hyperlink ref="X10" r:id="rId20" xr:uid="{7DCAA6B3-3377-4071-962B-AA38E9F9F7C0}"/>
-    <hyperlink ref="X11" r:id="rId21" xr:uid="{70FACDD0-68E1-48DC-9ABC-8556BBD69392}"/>
-    <hyperlink ref="X12" r:id="rId22" xr:uid="{E3AD4CD6-F546-43F1-9BBC-C056142E1388}"/>
-    <hyperlink ref="X13" r:id="rId23" xr:uid="{691843EE-FC00-48E7-9D1F-BFF116B480D6}"/>
-    <hyperlink ref="X14" r:id="rId24" xr:uid="{0AD1E955-D548-4178-AD13-7B7037A12374}"/>
-    <hyperlink ref="X15" r:id="rId25" xr:uid="{86B59FA1-DC33-46D0-BF1B-472C9CA87522}"/>
-    <hyperlink ref="X17" r:id="rId26" xr:uid="{03236D60-69EE-4F51-AFC5-80DF85DE606B}"/>
-    <hyperlink ref="X18" r:id="rId27" xr:uid="{B6081B41-34E0-4599-BF4C-B23283842511}"/>
-    <hyperlink ref="X19" r:id="rId28" xr:uid="{822E5E88-F682-4C74-9361-037511C69905}"/>
-    <hyperlink ref="X20" r:id="rId29" xr:uid="{C5ACE6C9-5BFC-458E-BE47-18A065F5C667}"/>
-    <hyperlink ref="X21" r:id="rId30" xr:uid="{4F25AAA8-25F8-44F2-AB3D-AD0DEC4D4745}"/>
-    <hyperlink ref="X22" r:id="rId31" xr:uid="{E6516AA7-C18E-41D6-8BDD-671349C785E5}"/>
-    <hyperlink ref="X23" r:id="rId32" xr:uid="{C8D2F28A-5570-4E37-B87A-ED8E6E845B99}"/>
-    <hyperlink ref="X24" r:id="rId33" xr:uid="{B9F6CA97-E6F2-4EEF-AAF3-0A813A258B52}"/>
-    <hyperlink ref="X25" r:id="rId34" xr:uid="{91C9A89A-C5AB-4E36-8266-1C81CB6046EE}"/>
-    <hyperlink ref="X27" r:id="rId35" xr:uid="{DB848AAD-B980-4951-8689-49AE034DB474}"/>
-    <hyperlink ref="X28" r:id="rId36" xr:uid="{706DFE67-9898-4747-BA16-5E07D43CAB09}"/>
-    <hyperlink ref="X29" r:id="rId37" xr:uid="{6C278D9E-0DAB-4ADE-A454-E469C3348CCD}"/>
+    <hyperlink ref="X31" r:id="rId1"/>
+    <hyperlink ref="X32" r:id="rId2"/>
+    <hyperlink ref="X33" r:id="rId3"/>
+    <hyperlink ref="X34" r:id="rId4"/>
+    <hyperlink ref="X35" r:id="rId5"/>
+    <hyperlink ref="X36" r:id="rId6"/>
+    <hyperlink ref="X37" r:id="rId7"/>
+    <hyperlink ref="X38" r:id="rId8"/>
+    <hyperlink ref="X39" r:id="rId9"/>
+    <hyperlink ref="X40" r:id="rId10"/>
+    <hyperlink ref="X30" r:id="rId11"/>
+    <hyperlink ref="X2" r:id="rId12"/>
+    <hyperlink ref="X3" r:id="rId13"/>
+    <hyperlink ref="X4" r:id="rId14"/>
+    <hyperlink ref="X5" r:id="rId15"/>
+    <hyperlink ref="X6" r:id="rId16"/>
+    <hyperlink ref="X7" r:id="rId17"/>
+    <hyperlink ref="X8" r:id="rId18"/>
+    <hyperlink ref="X9" r:id="rId19"/>
+    <hyperlink ref="X10" r:id="rId20"/>
+    <hyperlink ref="X11" r:id="rId21"/>
+    <hyperlink ref="X12" r:id="rId22"/>
+    <hyperlink ref="X13" r:id="rId23"/>
+    <hyperlink ref="X14" r:id="rId24"/>
+    <hyperlink ref="X15" r:id="rId25"/>
+    <hyperlink ref="X17" r:id="rId26"/>
+    <hyperlink ref="X18" r:id="rId27"/>
+    <hyperlink ref="X19" r:id="rId28"/>
+    <hyperlink ref="X20" r:id="rId29"/>
+    <hyperlink ref="X21" r:id="rId30"/>
+    <hyperlink ref="X22" r:id="rId31"/>
+    <hyperlink ref="X23" r:id="rId32"/>
+    <hyperlink ref="X24" r:id="rId33"/>
+    <hyperlink ref="X25" r:id="rId34"/>
+    <hyperlink ref="X27" r:id="rId35"/>
+    <hyperlink ref="X28" r:id="rId36"/>
+    <hyperlink ref="X29" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId38"/>
@@ -10417,21 +10440,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +10504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -10531,7 +10554,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10581,7 +10604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -10631,7 +10654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -10681,7 +10704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -10731,7 +10754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -10781,7 +10804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -10831,7 +10854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -10881,7 +10904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -10931,7 +10954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10981,7 +11004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -11031,7 +11054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11081,7 +11104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -11181,7 +11204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -11231,7 +11254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -11281,7 +11304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -11331,7 +11354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -11381,7 +11404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -11431,7 +11454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -11481,7 +11504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -11531,7 +11554,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -11581,7 +11604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -11631,7 +11654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -11681,7 +11704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -11731,7 +11754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -11781,7 +11804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -11831,7 +11854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -11881,7 +11904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -11931,7 +11954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -11981,7 +12004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -12031,7 +12054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -12081,7 +12104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -12131,7 +12154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -12181,7 +12204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -12231,7 +12254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -12281,7 +12304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -12331,7 +12354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -12381,7 +12404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -12431,7 +12454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E41">
         <f>SUBTOTAL(9,E2:E40)</f>
         <v>22</v>
@@ -12481,97 +12504,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C43" s="28"/>
     </row>
-    <row r="57" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="58" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" s="51" t="s">
+    <row r="57" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="53"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="46"/>
     </row>
-    <row r="59" spans="3:17" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="18"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="29" t="s">
+      <c r="D59" s="43"/>
+      <c r="E59" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="39" t="s">
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="35" t="s">
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="37"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="53"/>
     </row>
-    <row r="60" spans="3:17" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="18"/>
       <c r="D60" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="32">
-        <v>1</v>
-      </c>
-      <c r="F60" s="33">
+      <c r="E60" s="30">
+        <v>1</v>
+      </c>
+      <c r="F60" s="31">
         <v>2</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="31">
         <v>3</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="31">
         <v>4</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="34">
-        <v>1</v>
-      </c>
-      <c r="K60" s="34">
+      <c r="I60" s="35"/>
+      <c r="J60" s="32">
+        <v>1</v>
+      </c>
+      <c r="K60" s="32">
         <v>2</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="32">
         <v>3</v>
       </c>
-      <c r="M60" s="45">
+      <c r="M60" s="39">
         <v>4</v>
       </c>
-      <c r="N60" s="36">
-        <v>1</v>
-      </c>
-      <c r="O60" s="36">
+      <c r="N60" s="33">
+        <v>1</v>
+      </c>
+      <c r="O60" s="33">
         <v>2</v>
       </c>
-      <c r="P60" s="36">
+      <c r="P60" s="33">
         <v>3</v>
       </c>
-      <c r="Q60" s="38">
+      <c r="Q60" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="3:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C61" s="18"/>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="29" t="s">
         <v>94</v>
       </c>
       <c r="E61" s="13">
@@ -12586,7 +12609,7 @@
       <c r="H61" s="14">
         <v>10</v>
       </c>
-      <c r="I61" s="42"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="12">
         <v>62</v>
       </c>
@@ -12596,7 +12619,7 @@
       <c r="L61" s="12">
         <v>18</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="40">
         <v>5</v>
       </c>
       <c r="N61" s="11">
@@ -12612,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C62" s="18"/>
       <c r="D62" s="25" t="s">
         <v>2</v>
@@ -12629,7 +12652,7 @@
       <c r="H62" s="14">
         <v>14</v>
       </c>
-      <c r="I62" s="42"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="12">
         <v>61</v>
       </c>
@@ -12639,7 +12662,7 @@
       <c r="L62" s="12">
         <v>18</v>
       </c>
-      <c r="M62" s="46">
+      <c r="M62" s="40">
         <v>3</v>
       </c>
       <c r="N62" s="11">
@@ -12653,7 +12676,7 @@
       </c>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C63" s="18"/>
       <c r="D63" s="25" t="s">
         <v>76</v>
@@ -12670,7 +12693,7 @@
       <c r="H63" s="14">
         <v>0</v>
       </c>
-      <c r="I63" s="42"/>
+      <c r="I63" s="36"/>
       <c r="J63" s="12">
         <v>64</v>
       </c>
@@ -12680,7 +12703,7 @@
       <c r="L63" s="12">
         <v>18</v>
       </c>
-      <c r="M63" s="46">
+      <c r="M63" s="40">
         <v>9</v>
       </c>
       <c r="N63" s="11">
@@ -12696,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C64" s="18"/>
       <c r="D64" s="25" t="s">
         <v>101</v>
@@ -12713,7 +12736,7 @@
       <c r="H64" s="14">
         <v>14</v>
       </c>
-      <c r="I64" s="42"/>
+      <c r="I64" s="36"/>
       <c r="J64" s="12">
         <v>65</v>
       </c>
@@ -12723,7 +12746,7 @@
       <c r="L64" s="12">
         <v>15</v>
       </c>
-      <c r="M64" s="47">
+      <c r="M64" s="41">
         <v>10</v>
       </c>
       <c r="N64" s="11">
@@ -12739,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65" s="18"/>
       <c r="D65" s="25" t="s">
         <v>102</v>
@@ -12756,7 +12779,7 @@
       <c r="H65" s="14">
         <v>6</v>
       </c>
-      <c r="I65" s="42"/>
+      <c r="I65" s="36"/>
       <c r="J65" s="12">
         <v>58</v>
       </c>
@@ -12766,10 +12789,10 @@
       <c r="L65" s="12">
         <v>21</v>
       </c>
-      <c r="M65" s="46">
+      <c r="M65" s="40">
         <v>0</v>
       </c>
-      <c r="N65" s="44">
+      <c r="N65" s="38">
         <v>95</v>
       </c>
       <c r="O65" s="11">
@@ -12782,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C66" s="18"/>
       <c r="D66" s="25" t="s">
         <v>95</v>
@@ -12799,7 +12822,7 @@
       <c r="H66" s="14">
         <v>10</v>
       </c>
-      <c r="I66" s="42"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="12">
         <v>52</v>
       </c>
@@ -12809,7 +12832,7 @@
       <c r="L66" s="9">
         <v>24</v>
       </c>
-      <c r="M66" s="46">
+      <c r="M66" s="40">
         <v>5</v>
       </c>
       <c r="N66" s="11">
@@ -12825,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="18"/>
       <c r="D67" s="26" t="s">
         <v>96</v>
@@ -12842,7 +12865,7 @@
       <c r="H67" s="20">
         <v>11</v>
       </c>
-      <c r="I67" s="43"/>
+      <c r="I67" s="37"/>
       <c r="J67" s="21">
         <v>72</v>
       </c>
@@ -12852,7 +12875,7 @@
       <c r="L67" s="22">
         <v>11</v>
       </c>
-      <c r="M67" s="48">
+      <c r="M67" s="42">
         <v>6</v>
       </c>
       <c r="N67" s="23">
@@ -12868,29 +12891,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P40"/>
   <mergeCells count="4">
     <mergeCell ref="D58:Q58"/>
     <mergeCell ref="E59:I59"/>
@@ -12904,149 +12927,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3.3796296296296297E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>7.013888888888889E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>

--- a/public_html/wm/Auswertung500.xlsx
+++ b/public_html/wm/Auswertung500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">auswertung!$A$1:$P$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$A$1:$W$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -797,6 +797,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -946,6 +947,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="1"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -956,7 +958,9 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-67FD-481C-828F-4E1CFA1099E7}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1010,7 +1014,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4808,7 +4814,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4849,7 +4855,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4891,7 @@
         <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,7 +4929,7 @@
         <xdr:cNvPr id="7" name="Diagramm 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5715,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView topLeftCell="X45" workbookViewId="0">
-      <selection activeCell="AF45" sqref="AF45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,9 +10449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
